--- a/media/eb_order/eb_order.xlsx
+++ b/media/eb_order/eb_order.xlsx
@@ -51,16 +51,6 @@
     <t>納入物件</t>
   </si>
   <si>
-    <t>月別作業報告書</t>
-  </si>
-  <si>
-    <t>〈契約条項〉
-１．本作業に関わる著作権は、甲に一切帰属するものとする。
-２．乙は、本作業にて知り得た知識・企業秘密・ノウハウその他の情報（本作業自体を含め）、一切乙以外の外部に漏洩しないものとする。
-３．顧客の都合によりこの注文書の業務が中断もしくは終了した場合は、その時点で、当該注文は解除され発注の効力を失う。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>注文番号：{$ORDER_NO$}</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -234,6 +224,14 @@
   </si>
   <si>
     <t>連絡窓口担当者（甲）</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{$CONTRACT_ITEMS$}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{$DELIVERY_PROPERTIES$}</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -532,131 +530,131 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,7 +962,9 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
@@ -972,62 +972,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1">
-      <c r="I1" s="42" t="s">
-        <v>12</v>
+      <c r="I1" s="39" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="27" customHeight="1">
-      <c r="I2" s="43" t="s">
-        <v>23</v>
+      <c r="I2" s="40" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1">
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="38" t="s">
-        <v>45</v>
+      <c r="A5" s="35" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.5">
       <c r="A6" s="6"/>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1">
+      <c r="F8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1">
+      <c r="F9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="F8" s="39" t="s">
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:9" ht="19.5">
+      <c r="F10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="F9" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:9" ht="19.5">
-      <c r="F10" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="40"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="F11" s="1"/>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="G14" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.95" customHeight="1">
@@ -1057,358 +1057,358 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="27" customHeight="1">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" ht="27" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" ht="27" customHeight="1">
+      <c r="A20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" ht="27" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" ht="27" customHeight="1">
+      <c r="A22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="44" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" ht="27" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" ht="27" customHeight="1">
-      <c r="A20" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21" t="s">
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" ht="21" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" ht="21" customHeight="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" ht="21" customHeight="1">
+      <c r="A25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" ht="21" customHeight="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" ht="21" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" spans="1:9" ht="21" customHeight="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" ht="27" customHeight="1">
+      <c r="A29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:9" ht="27" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" ht="27" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" ht="27" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" ht="21" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="1:9" ht="21" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
-    </row>
-    <row r="25" spans="1:9" ht="21" customHeight="1">
-      <c r="A25" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
-    </row>
-    <row r="26" spans="1:9" ht="21" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="1:9" ht="21" customHeight="1">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="1:9" ht="21" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" spans="1:9" ht="27" customHeight="1">
-      <c r="A29" s="9" t="s">
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="44" t="s">
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="29"/>
-    </row>
-    <row r="30" spans="1:9" ht="27" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="45" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="32"/>
+    </row>
+    <row r="33" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="31"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="48" t="s">
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
+    </row>
+    <row r="34" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="48" t="s">
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="32"/>
+    </row>
+    <row r="35" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A34" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="48" t="s">
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
+    </row>
+    <row r="36" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="48" t="s">
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
+    </row>
+    <row r="37" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="33"/>
-    </row>
-    <row r="36" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="33"/>
-    </row>
-    <row r="37" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
+      <c r="A38" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/media/eb_order/eb_order.xlsx
+++ b/media/eb_order/eb_order.xlsx
@@ -184,26 +184,7 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>月額基本料金：\{$ALLOWANCE_BASE$}円/月　　{$ALLOWANCE_BASE_MEMO$}</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>超過単価：\{$ALLOWANCE_BASE$}/{$ALLOWANCE_TIME_MAX$}h=\{$ALLOWANCE_OVERTIME$}/h</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>不足単価：\{$ALLOWANCE_BASE$}/{$ALLOWANCE_TIME_MIN$}h=\{$ALLOWANCE_ABSENTEEISM$}/h</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>{$COMMENT$}</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>※基準時間：{$ALLOWANCE_TIME_MIN$}〜{$ALLOWANCE_TIME_MAX$}h/月</t>
-    <rPh sb="53" eb="54">
-      <t>ゲツ</t>
-    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -232,6 +213,22 @@
   </si>
   <si>
     <t>{$DELIVERY_PROPERTIES$}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{$ALLOWANCE_BASE_MEMO$}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{$ALLOWANCE_OVERTIME_MEMO$}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{$ALLOWANCE_ABSENTEEISM_MEMO$}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{$ALLOWANCE_TIME_MEMO$}</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -962,9 +959,7 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
@@ -995,7 +990,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="35" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.5">
@@ -1097,7 +1092,7 @@
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="41" t="s">
@@ -1143,7 +1138,7 @@
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="42" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -1156,7 +1151,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="43" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -1171,7 +1166,7 @@
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="43" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -1184,7 +1179,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="43" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -1197,7 +1192,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1240,7 +1235,7 @@
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
@@ -1344,7 +1339,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="48" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>

--- a/media/eb_order/eb_order.xlsx
+++ b/media/eb_order/eb_order.xlsx
@@ -12,14 +12,14 @@
   <definedNames>
     <definedName name="ITERATOR_END">Sheet1!$I$25</definedName>
     <definedName name="ITERATOR_START">Sheet1!$C$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$44</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>注　文　書</t>
   </si>
@@ -169,10 +169,6 @@
   </si>
   <si>
     <t>⑤ 著しく勤怠不良の場合は、協議の上で減額する。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>⑥ 振込手数料は受託者負担とさせて頂きます。</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -229,6 +225,14 @@
   </si>
   <si>
     <t>{$ALLOWANCE_TIME_MEMO$}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>⑦ 注文請書は毎月の15日までに弊社に必着。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>⑥ 振込手数料は受託者負担とさせて頂きます。</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -957,7 +961,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
@@ -990,7 +994,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.5">
@@ -1092,7 +1096,7 @@
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="41" t="s">
@@ -1138,7 +1142,7 @@
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -1151,7 +1155,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -1162,11 +1166,11 @@
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -1179,7 +1183,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -1192,7 +1196,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1235,7 +1239,7 @@
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
@@ -1285,7 +1289,7 @@
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="45" t="s">
@@ -1325,41 +1329,43 @@
       <c r="I36" s="32"/>
     </row>
     <row r="37" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="49"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
+      <c r="A39" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="49"/>
@@ -1405,10 +1411,21 @@
       <c r="H43" s="49"/>
       <c r="I43" s="49"/>
     </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A38:I43"/>
+    <mergeCell ref="A39:I44"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
